--- a/Students_Marks shreyash girade.xlsx
+++ b/Students_Marks shreyash girade.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f654bf524b446e91/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shrav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2360A04-9292-47FF-B04E-ABB467E0EFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC9E5F-C0CB-4F8E-9AFC-2F297F579641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -121,6 +124,30 @@
   </si>
   <si>
     <t>RESULTS</t>
+  </si>
+  <si>
+    <t>DISTINCTION</t>
+  </si>
+  <si>
+    <t>TINKER</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TOPPER LIST</t>
+  </si>
+  <si>
+    <t>BELOW DISTINCTION</t>
+  </si>
+  <si>
+    <t>CLASS</t>
   </si>
 </sst>
 </file>
@@ -208,7 +235,519 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="55">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -508,19 +1047,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,16 +1085,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -560,7 +1114,7 @@
         <v>25070521161</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>93</v>
@@ -574,685 +1128,1028 @@
       <c r="G2">
         <v>99</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
         <f>SUM(C2:G2)</f>
-        <v>452</v>
-      </c>
-      <c r="I2">
+        <v>459</v>
+      </c>
+      <c r="J2">
         <f>AVERAGE(C2:G2)</f>
-        <v>90.4</v>
-      </c>
-      <c r="J2" t="str">
-        <f>IF(I2&gt;=50, "Pass", "Fail")</f>
+        <v>91.8</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(AND(C2&gt;=50,D2&gt;=50,E2&gt;=50,F2&gt;=50,G2&gt;=50,OR(H2="A",H2="B",H2="C")),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
+      <c r="L2" t="str">
+        <f>IF(AND(J2&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(AND(J2&gt;=65,J2&lt;75),"1ST CLASS","2NDCLASS")</f>
+        <v>2NDCLASS</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>25070521162</v>
+        <v>25070521176</v>
       </c>
       <c r="C3">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F3">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>80</v>
-      </c>
-      <c r="H3">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
         <f>SUM(C3:G3)</f>
-        <v>345</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I21" si="0">AVERAGE(C3:G3)</f>
-        <v>69</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J21" si="1">IF(I3&gt;=50, "Pass", "Fail")</f>
+        <v>446</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(C3:G3)</f>
+        <v>89.2</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(AND(C3&gt;=50,D3&gt;=50,E3&gt;=50,F3&gt;=50,G3&gt;=50,OR(H3="A",H3="B",H3="C")),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
+      <c r="L3" t="str">
+        <f>IF(AND(J3&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N21" si="0">IF(AND(J3&gt;=65,J3&lt;75),"1ST CLASS","2NDCLASS")</f>
+        <v>2NDCLASS</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>25070521163</v>
+        <v>25070521175</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E4">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G4">
-        <v>42</v>
-      </c>
-      <c r="H4">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
         <f>SUM(C4:G4)</f>
-        <v>273</v>
-      </c>
-      <c r="I4">
+        <v>400</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(C4:G4)</f>
+        <v>80</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(AND(C4&gt;=50,D4&gt;=50,E4&gt;=50,F4&gt;=50,G4&gt;=50,OR(H4="A",H4="B",H4="C")),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(AND(J4&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="0"/>
-        <v>54.6</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>25070521164</v>
+        <v>25070521171</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G5">
-        <v>57</v>
-      </c>
-      <c r="H5">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
         <f>SUM(C5:G5)</f>
-        <v>259</v>
-      </c>
-      <c r="I5">
+        <v>391</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(C5:G5)</f>
+        <v>78.2</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(AND(C5&gt;=50,D5&gt;=50,E5&gt;=50,F5&gt;=50,G5&gt;=50,OR(H5="A",H5="B",H5="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L5" t="str">
+        <f>IF(AND(J5&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>51.8</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>25070521165</v>
+        <v>25070521172</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F6">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>38</v>
-      </c>
-      <c r="H6">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
         <f>SUM(C6:G6)</f>
-        <v>250</v>
-      </c>
-      <c r="I6">
+        <v>382</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(C6:G6)</f>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(AND(C6&gt;=50,D6&gt;=50,E6&gt;=50,F6&gt;=50,G6&gt;=50,OR(H6="A",H6="B",H6="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(AND(J6&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>25070521166</v>
+        <v>25070521168</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G7">
-        <v>43</v>
-      </c>
-      <c r="H7">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
         <f>SUM(C7:G7)</f>
-        <v>341</v>
-      </c>
-      <c r="I7">
+        <v>378</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(C7:G7)</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(AND(C7&gt;=50,D7&gt;=50,E7&gt;=50,F7&gt;=50,G7&gt;=50,OR(H7="A",H7="B",H7="C")),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(AND(J7&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="0"/>
-        <v>68.2</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>25070521167</v>
+        <v>25070521178</v>
       </c>
       <c r="C8">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F8">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G8">
-        <v>54</v>
-      </c>
-      <c r="H8">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8">
         <f>SUM(C8:G8)</f>
-        <v>340</v>
-      </c>
-      <c r="I8">
+        <v>370</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(C8:G8)</f>
+        <v>74</v>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(AND(C8&gt;=50,D8&gt;=50,E8&gt;=50,F8&gt;=50,G8&gt;=50,OR(H8="A",H8="B",H8="C")),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(AND(J8&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>1ST CLASS</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>25070521168</v>
+        <v>25070521177</v>
       </c>
       <c r="C9">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E9">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F9">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="G9">
-        <v>57</v>
-      </c>
-      <c r="H9">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9">
         <f>SUM(C9:G9)</f>
-        <v>378</v>
-      </c>
-      <c r="I9">
+        <v>367</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE(C9:G9)</f>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="K9" t="str">
+        <f>IF(AND(C9&gt;=50,D9&gt;=50,E9&gt;=50,F9&gt;=50,G9&gt;=50,OR(H9="A",H9="B",H9="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(AND(J9&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>1ST CLASS</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>25070521169</v>
+        <v>25070521173</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G10">
-        <v>77</v>
-      </c>
-      <c r="H10">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
         <f>SUM(C10:G10)</f>
-        <v>288</v>
-      </c>
-      <c r="I10">
+        <v>360</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE(C10:G10)</f>
+        <v>72</v>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(AND(C10&gt;=50,D10&gt;=50,E10&gt;=50,F10&gt;=50,G10&gt;=50,OR(H10="A",H10="B",H10="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(AND(J10&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="0"/>
-        <v>57.6</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>1ST CLASS</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>25070521170</v>
+        <v>25070521174</v>
       </c>
       <c r="C11">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="F11">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G11">
-        <v>59</v>
-      </c>
-      <c r="H11">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11">
         <f>SUM(C11:G11)</f>
-        <v>289</v>
-      </c>
-      <c r="I11">
+        <v>359</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGE(C11:G11)</f>
+        <v>71.8</v>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(AND(C11&gt;=50,D11&gt;=50,E11&gt;=50,F11&gt;=50,G11&gt;=50,OR(H11="A",H11="B",H11="C")),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="L11" t="str">
+        <f>IF(AND(J11&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="0"/>
-        <v>57.8</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>1ST CLASS</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12">
-        <v>25070521171</v>
+        <v>25070521162</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F12">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <v>99</v>
-      </c>
-      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12">
         <f>SUM(C12:G12)</f>
-        <v>391</v>
-      </c>
-      <c r="I12">
+        <v>345</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGE(C12:G12)</f>
+        <v>69</v>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(AND(C12&gt;=50,D12&gt;=50,E12&gt;=50,F12&gt;=50,G12&gt;=50,OR(H12="A",H12="B",H12="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(AND(J12&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="0"/>
-        <v>78.2</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>1ST CLASS</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>25070521172</v>
+        <v>25070521166</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E13">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G13">
-        <v>94</v>
-      </c>
-      <c r="H13">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13">
         <f>SUM(C13:G13)</f>
-        <v>382</v>
-      </c>
-      <c r="I13">
+        <v>341</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(C13:G13)</f>
+        <v>68.2</v>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(AND(C13&gt;=50,D13&gt;=50,E13&gt;=50,F13&gt;=50,G13&gt;=50,OR(H13="A",H13="B",H13="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(AND(J13&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="0"/>
-        <v>76.400000000000006</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>1ST CLASS</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14">
-        <v>25070521173</v>
+        <v>25070521167</v>
       </c>
       <c r="C14">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E14">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>89</v>
       </c>
       <c r="G14">
-        <v>38</v>
-      </c>
-      <c r="H14">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14">
         <f>SUM(C14:G14)</f>
-        <v>360</v>
-      </c>
-      <c r="I14">
+        <v>340</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(C14:G14)</f>
+        <v>68</v>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(AND(C14&gt;=50,D14&gt;=50,E14&gt;=50,F14&gt;=50,G14&gt;=50,OR(H14="A",H14="B",H14="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(AND(J14&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>1ST CLASS</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>25070521174</v>
+        <v>25070521180</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E15">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F15">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>87</v>
-      </c>
-      <c r="H15">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15">
         <f>SUM(C15:G15)</f>
-        <v>359</v>
-      </c>
-      <c r="I15">
+        <v>312</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE(C15:G15)</f>
+        <v>62.4</v>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(AND(C15&gt;=50,D15&gt;=50,E15&gt;=50,F15&gt;=50,G15&gt;=50,OR(H15="A",H15="B",H15="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(AND(J15&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="0"/>
-        <v>71.8</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
-        <v>25070521175</v>
+        <v>25070521170</v>
       </c>
       <c r="C16">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D16">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>59</v>
       </c>
       <c r="G16">
-        <v>95</v>
-      </c>
-      <c r="H16">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16">
         <f>SUM(C16:G16)</f>
-        <v>400</v>
-      </c>
-      <c r="I16">
+        <v>289</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(C16:G16)</f>
+        <v>57.8</v>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(AND(C16&gt;=50,D16&gt;=50,E16&gt;=50,F16&gt;=50,G16&gt;=50,OR(H16="A",H16="B",H16="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(AND(J16&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>25070521176</v>
+        <v>25070521169</v>
       </c>
       <c r="C17">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E17">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F17">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G17">
-        <v>94</v>
-      </c>
-      <c r="H17">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
         <f>SUM(C17:G17)</f>
-        <v>446</v>
-      </c>
-      <c r="I17">
+        <v>288</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGE(C17:G17)</f>
+        <v>57.6</v>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(AND(C17&gt;=50,D17&gt;=50,E17&gt;=50,F17&gt;=50,G17&gt;=50,OR(H17="A",H17="B",H17="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(AND(J17&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="0"/>
-        <v>89.2</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>25070521177</v>
+        <v>25070521179</v>
       </c>
       <c r="C18">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <v>79</v>
+      </c>
+      <c r="G18">
         <v>67</v>
       </c>
-      <c r="D18">
-        <v>82</v>
-      </c>
-      <c r="E18">
-        <v>76</v>
-      </c>
-      <c r="F18">
-        <v>95</v>
-      </c>
-      <c r="G18">
-        <v>47</v>
-      </c>
-      <c r="H18">
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18">
         <f>SUM(C18:G18)</f>
-        <v>367</v>
-      </c>
-      <c r="I18">
+        <v>277</v>
+      </c>
+      <c r="J18">
+        <f>AVERAGE(C18:G18)</f>
+        <v>55.4</v>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(AND(C18&gt;=50,D18&gt;=50,E18&gt;=50,F18&gt;=50,G18&gt;=50,OR(H18="A",H18="B",H18="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(AND(J18&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="0"/>
-        <v>73.400000000000006</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>25070521178</v>
+        <v>25070521163</v>
       </c>
       <c r="C19">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F19">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G19">
-        <v>66</v>
-      </c>
-      <c r="H19">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19">
         <f>SUM(C19:G19)</f>
-        <v>370</v>
-      </c>
-      <c r="I19">
+        <v>273</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGE(C19:G19)</f>
+        <v>54.6</v>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(AND(C19&gt;=50,D19&gt;=50,E19&gt;=50,F19&gt;=50,G19&gt;=50,OR(H19="A",H19="B",H19="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(AND(J19&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>25070521179</v>
+        <v>25070521164</v>
       </c>
       <c r="C20">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>53</v>
+      </c>
+      <c r="E20">
         <v>49</v>
       </c>
-      <c r="D20">
-        <v>36</v>
-      </c>
-      <c r="E20">
-        <v>46</v>
-      </c>
       <c r="F20">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G20">
-        <v>67</v>
-      </c>
-      <c r="H20">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20">
         <f>SUM(C20:G20)</f>
-        <v>277</v>
-      </c>
-      <c r="I20">
+        <v>259</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGE(C20:G20)</f>
+        <v>51.8</v>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(AND(C20&gt;=50,D20&gt;=50,E20&gt;=50,F20&gt;=50,G20&gt;=50,OR(H20="A",H20="B",H20="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(AND(J20&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="0"/>
-        <v>55.4</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>25070521180</v>
+        <v>25070521165</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F21">
+        <v>55</v>
+      </c>
+      <c r="G21">
         <v>38</v>
       </c>
-      <c r="G21">
-        <v>54</v>
-      </c>
-      <c r="H21">
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21">
         <f>SUM(C21:G21)</f>
-        <v>312</v>
-      </c>
-      <c r="I21">
+        <v>250</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE(C21:G21)</f>
+        <v>50</v>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(AND(C21&gt;=50,D21&gt;=50,E21&gt;=50,F21&gt;=50,G21&gt;=50,OR(H21="A",H21="B",H21="C")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="L21" t="str">
+        <f>IF(AND(J21&gt;=75),"DISTINCTION","BELOW DISTINCTION")</f>
+        <v>BELOW DISTINCTION</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="0"/>
-        <v>62.4</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>2NDCLASS</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>COUNTIF(L2:L21,"DISTINCTION")</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L22">
+    <sortCondition descending="1" ref="I2:I22"/>
+  </sortState>
+  <conditionalFormatting sqref="K1:K21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K21">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L21">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"DISTINCTION"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L21">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"BELOW DISTINCTION"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M21">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>10.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>10.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>10.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H21">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>